--- a/Latihan_ banyak File/Data Tahun 2022.xlsx
+++ b/Latihan_ banyak File/Data Tahun 2022.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\IHT DJP Masuk Bursa\M2 Gabungan banyak File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hekso\FGD NTB\Materi DA\02 Excel for DA\Latihan_ banyak File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD432BF8-C90C-4A4C-B614-964DE4DDCC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE74AC54-B7BD-4EB9-B003-76F261F38C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20F43226-7EDD-45C3-8BE8-22D286F4523F}"/>
   </bookViews>
   <sheets>
-    <sheet name="2010" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2010'!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2022'!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -222,9 +225,7 @@
     <tableColumn id="1" xr3:uid="{4D1F8CD5-5848-4ABB-BCD0-DA586F38D267}" name="Tahun" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{89FFFDDC-C39B-452A-BD9F-57AB96D8CED2}" name="Provinsi"/>
     <tableColumn id="3" xr3:uid="{EDE87A73-0E45-47FE-8916-BF6BE4210FB4}" name="Nama Ikan"/>
-    <tableColumn id="4" xr3:uid="{01F8DB36-69E0-4CCC-82D8-1BF3E7711258}" name="Volume (ton)">
-      <calculatedColumnFormula>RANDBETWEEN(10,10000)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{01F8DB36-69E0-4CCC-82D8-1BF3E7711258}" name="Volume (ton)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54DCF9-DB63-407E-A7D6-1EB94AD42E47}">
   <dimension ref="A3:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D148"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,8 +567,7 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <f ca="1">RANDBETWEEN(10,10000)</f>
-        <v>4417</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,8 +581,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D68" ca="1" si="0">RANDBETWEEN(10,10000)</f>
-        <v>3110</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,8 +595,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7407</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,8 +609,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2135</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,8 +623,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>142</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,8 +637,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>232</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,8 +651,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>994</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -671,8 +665,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2595</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,8 +679,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6471</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,8 +693,7 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>9421</v>
+        <v>8616</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,8 +707,7 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8033</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,8 +721,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7031</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,8 +735,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>6634</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,8 +749,7 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1078</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,8 +763,7 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,8 +777,7 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>2784</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,8 +791,7 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>3246</v>
+        <v>7341</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,8 +805,7 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>8859</v>
+        <v>9379</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -836,8 +819,7 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>766</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,8 +833,7 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>7939</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,8 +847,7 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2831</v>
+        <v>8731</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,8 +861,7 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>3904</v>
+        <v>9552</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,8 +875,7 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>2755</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -911,8 +889,7 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="0"/>
-        <v>9534</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,8 +903,7 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>7196</v>
+        <v>9132</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,8 +917,7 @@
         <v>9</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="0"/>
-        <v>2473</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,8 +931,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>7496</v>
+        <v>9944</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,8 +945,7 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="0"/>
-        <v>2722</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -986,8 +959,7 @@
         <v>7</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="0"/>
-        <v>2324</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1001,8 +973,7 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="0"/>
-        <v>6871</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,8 +987,7 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="0"/>
-        <v>1073</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1031,8 +1001,7 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="0"/>
-        <v>5364</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,8 +1015,7 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="0"/>
-        <v>3199</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,8 +1029,7 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1240</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,8 +1043,7 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="0"/>
-        <v>4457</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,8 +1057,7 @@
         <v>9</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="0"/>
-        <v>9047</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,8 +1071,7 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="0"/>
-        <v>7912</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,8 +1085,7 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="0"/>
-        <v>419</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,8 +1099,7 @@
         <v>7</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="0"/>
-        <v>7645</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1151,8 +1113,7 @@
         <v>8</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="0"/>
-        <v>6642</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1166,8 +1127,7 @@
         <v>9</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="0"/>
-        <v>6251</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,8 +1141,7 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="0"/>
-        <v>7286</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1196,8 +1155,7 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="0"/>
-        <v>708</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,8 +1169,7 @@
         <v>7</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="0"/>
-        <v>5218</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,8 +1183,7 @@
         <v>8</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="0"/>
-        <v>1577</v>
+        <v>9057</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,8 +1197,7 @@
         <v>9</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="0"/>
-        <v>7621</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,8 +1211,7 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="0"/>
-        <v>9825</v>
+        <v>9544</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,8 +1225,7 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="0"/>
-        <v>6086</v>
+        <v>9266</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,8 +1239,7 @@
         <v>7</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="0"/>
-        <v>9673</v>
+        <v>8988</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,8 +1253,7 @@
         <v>8</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="0"/>
-        <v>8422</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,8 +1267,7 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <f t="shared" ca="1" si="0"/>
-        <v>4421</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,8 +1281,7 @@
         <v>5</v>
       </c>
       <c r="D55">
-        <f t="shared" ca="1" si="0"/>
-        <v>1186</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,8 +1295,7 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <f t="shared" ca="1" si="0"/>
-        <v>9324</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,8 +1309,7 @@
         <v>7</v>
       </c>
       <c r="D57">
-        <f t="shared" ca="1" si="0"/>
-        <v>3542</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,8 +1323,7 @@
         <v>8</v>
       </c>
       <c r="D58">
-        <f t="shared" ca="1" si="0"/>
-        <v>6591</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,8 +1337,7 @@
         <v>9</v>
       </c>
       <c r="D59">
-        <f t="shared" ca="1" si="0"/>
-        <v>9424</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,8 +1351,7 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="0"/>
-        <v>8356</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1421,8 +1365,7 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="0"/>
-        <v>3340</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,8 +1379,7 @@
         <v>7</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="0"/>
-        <v>4438</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1451,8 +1393,7 @@
         <v>8</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="0"/>
-        <v>8382</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,8 +1407,7 @@
         <v>9</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,8 +1421,7 @@
         <v>5</v>
       </c>
       <c r="D65">
-        <f t="shared" ca="1" si="0"/>
-        <v>7288</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1496,8 +1435,7 @@
         <v>6</v>
       </c>
       <c r="D66">
-        <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,8 +1449,7 @@
         <v>7</v>
       </c>
       <c r="D67">
-        <f t="shared" ca="1" si="0"/>
-        <v>5382</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,8 +1463,7 @@
         <v>8</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="0"/>
-        <v>1561</v>
+        <v>9464</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,8 +1477,7 @@
         <v>9</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" ca="1" si="1">RANDBETWEEN(10,10000)</f>
-        <v>6523</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1556,8 +1491,7 @@
         <v>5</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="1"/>
-        <v>8120</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,8 +1505,7 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="1"/>
-        <v>9210</v>
+        <v>8771</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,8 +1519,7 @@
         <v>7</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="1"/>
-        <v>7273</v>
+        <v>8197</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,8 +1533,7 @@
         <v>8</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="1"/>
-        <v>5501</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,8 +1547,7 @@
         <v>9</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="1"/>
-        <v>9151</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,8 +1561,7 @@
         <v>5</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="1"/>
-        <v>8625</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,8 +1575,7 @@
         <v>6</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="1"/>
-        <v>8680</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,8 +1589,7 @@
         <v>7</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="1"/>
-        <v>2748</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,8 +1603,7 @@
         <v>8</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="1"/>
-        <v>908</v>
+        <v>9919</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,8 +1617,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="1"/>
-        <v>8439</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,8 +1631,7 @@
         <v>5</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="1"/>
-        <v>9110</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1721,8 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="1"/>
-        <v>2462</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,8 +1659,7 @@
         <v>7</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="1"/>
-        <v>4839</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,8 +1673,7 @@
         <v>8</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="1"/>
-        <v>2598</v>
+        <v>9625</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1766,8 +1687,7 @@
         <v>9</v>
       </c>
       <c r="D84">
-        <f t="shared" ca="1" si="1"/>
-        <v>1897</v>
+        <v>5497</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,8 +1701,7 @@
         <v>5</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="1"/>
-        <v>4656</v>
+        <v>7186</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,8 +1715,7 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <f t="shared" ca="1" si="1"/>
-        <v>6536</v>
+        <v>9556</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,8 +1729,7 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="1"/>
-        <v>4931</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1826,8 +1743,7 @@
         <v>8</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="1"/>
-        <v>9397</v>
+        <v>7187</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,8 +1757,7 @@
         <v>9</v>
       </c>
       <c r="D89">
-        <f t="shared" ca="1" si="1"/>
-        <v>3350</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,8 +1771,7 @@
         <v>5</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="1"/>
-        <v>2128</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,8 +1785,7 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="1"/>
-        <v>1299</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,8 +1799,7 @@
         <v>7</v>
       </c>
       <c r="D92">
-        <f t="shared" ca="1" si="1"/>
-        <v>4490</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,8 +1813,7 @@
         <v>8</v>
       </c>
       <c r="D93">
-        <f t="shared" ca="1" si="1"/>
-        <v>6783</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,8 +1827,7 @@
         <v>9</v>
       </c>
       <c r="D94">
-        <f t="shared" ca="1" si="1"/>
-        <v>9054</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1931,8 +1841,7 @@
         <v>5</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="1"/>
-        <v>7374</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,8 +1855,7 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="1"/>
-        <v>4053</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1961,8 +1869,7 @@
         <v>7</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="1"/>
-        <v>2075</v>
+        <v>8659</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1976,8 +1883,7 @@
         <v>8</v>
       </c>
       <c r="D98">
-        <f t="shared" ca="1" si="1"/>
-        <v>2412</v>
+        <v>9365</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1991,8 +1897,7 @@
         <v>9</v>
       </c>
       <c r="D99">
-        <f t="shared" ca="1" si="1"/>
-        <v>6007</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2006,8 +1911,7 @@
         <v>5</v>
       </c>
       <c r="D100">
-        <f t="shared" ca="1" si="1"/>
-        <v>7938</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,8 +1925,7 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <f t="shared" ca="1" si="1"/>
-        <v>4466</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2036,8 +1939,7 @@
         <v>7</v>
       </c>
       <c r="D102">
-        <f t="shared" ca="1" si="1"/>
-        <v>5828</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,8 +1953,7 @@
         <v>8</v>
       </c>
       <c r="D103">
-        <f t="shared" ca="1" si="1"/>
-        <v>4478</v>
+        <v>8459</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2066,8 +1967,7 @@
         <v>9</v>
       </c>
       <c r="D104">
-        <f t="shared" ca="1" si="1"/>
-        <v>7737</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2081,8 +1981,7 @@
         <v>5</v>
       </c>
       <c r="D105">
-        <f t="shared" ca="1" si="1"/>
-        <v>2190</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2096,8 +1995,7 @@
         <v>6</v>
       </c>
       <c r="D106">
-        <f t="shared" ca="1" si="1"/>
-        <v>6704</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,8 +2009,7 @@
         <v>7</v>
       </c>
       <c r="D107">
-        <f t="shared" ca="1" si="1"/>
-        <v>6360</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,8 +2023,7 @@
         <v>8</v>
       </c>
       <c r="D108">
-        <f t="shared" ca="1" si="1"/>
-        <v>3106</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,8 +2037,7 @@
         <v>9</v>
       </c>
       <c r="D109">
-        <f t="shared" ca="1" si="1"/>
-        <v>3945</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2156,8 +2051,7 @@
         <v>5</v>
       </c>
       <c r="D110">
-        <f t="shared" ca="1" si="1"/>
-        <v>1811</v>
+        <v>8407</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2171,8 +2065,7 @@
         <v>6</v>
       </c>
       <c r="D111">
-        <f t="shared" ca="1" si="1"/>
-        <v>2394</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2186,8 +2079,7 @@
         <v>7</v>
       </c>
       <c r="D112">
-        <f t="shared" ca="1" si="1"/>
-        <v>1795</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,8 +2093,7 @@
         <v>8</v>
       </c>
       <c r="D113">
-        <f t="shared" ca="1" si="1"/>
-        <v>1529</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2216,8 +2107,7 @@
         <v>9</v>
       </c>
       <c r="D114">
-        <f t="shared" ca="1" si="1"/>
-        <v>331</v>
+        <v>7321</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2231,8 +2121,7 @@
         <v>5</v>
       </c>
       <c r="D115">
-        <f t="shared" ca="1" si="1"/>
-        <v>7754</v>
+        <v>8092</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2246,8 +2135,7 @@
         <v>6</v>
       </c>
       <c r="D116">
-        <f t="shared" ca="1" si="1"/>
-        <v>6685</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,8 +2149,7 @@
         <v>7</v>
       </c>
       <c r="D117">
-        <f t="shared" ca="1" si="1"/>
-        <v>6827</v>
+        <v>9224</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2276,8 +2163,7 @@
         <v>8</v>
       </c>
       <c r="D118">
-        <f t="shared" ca="1" si="1"/>
-        <v>2856</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,8 +2177,7 @@
         <v>9</v>
       </c>
       <c r="D119">
-        <f t="shared" ca="1" si="1"/>
-        <v>7413</v>
+        <v>772</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2306,8 +2191,7 @@
         <v>5</v>
       </c>
       <c r="D120">
-        <f t="shared" ca="1" si="1"/>
-        <v>5482</v>
+        <v>7344</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,8 +2205,7 @@
         <v>6</v>
       </c>
       <c r="D121">
-        <f t="shared" ca="1" si="1"/>
-        <v>3003</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,8 +2219,7 @@
         <v>7</v>
       </c>
       <c r="D122">
-        <f t="shared" ca="1" si="1"/>
-        <v>3559</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2351,8 +2233,7 @@
         <v>8</v>
       </c>
       <c r="D123">
-        <f t="shared" ca="1" si="1"/>
-        <v>9738</v>
+        <v>8792</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,8 +2247,7 @@
         <v>9</v>
       </c>
       <c r="D124">
-        <f t="shared" ca="1" si="1"/>
-        <v>5700</v>
+        <v>8247</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2381,8 +2261,7 @@
         <v>5</v>
       </c>
       <c r="D125">
-        <f t="shared" ca="1" si="1"/>
-        <v>4021</v>
+        <v>8854</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2396,8 +2275,7 @@
         <v>6</v>
       </c>
       <c r="D126">
-        <f t="shared" ca="1" si="1"/>
-        <v>488</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,8 +2289,7 @@
         <v>7</v>
       </c>
       <c r="D127">
-        <f t="shared" ca="1" si="1"/>
-        <v>3037</v>
+        <v>9341</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2426,8 +2303,7 @@
         <v>8</v>
       </c>
       <c r="D128">
-        <f t="shared" ca="1" si="1"/>
-        <v>6983</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2441,8 +2317,7 @@
         <v>9</v>
       </c>
       <c r="D129">
-        <f t="shared" ca="1" si="1"/>
-        <v>2064</v>
+        <v>9930</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2456,8 +2331,7 @@
         <v>5</v>
       </c>
       <c r="D130">
-        <f t="shared" ca="1" si="1"/>
-        <v>9119</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,8 +2345,7 @@
         <v>6</v>
       </c>
       <c r="D131">
-        <f t="shared" ca="1" si="1"/>
-        <v>1700</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,8 +2359,7 @@
         <v>7</v>
       </c>
       <c r="D132">
-        <f t="shared" ca="1" si="1"/>
-        <v>2431</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2501,8 +2373,7 @@
         <v>8</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D148" ca="1" si="2">RANDBETWEEN(10,10000)</f>
-        <v>2340</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2516,8 +2387,7 @@
         <v>9</v>
       </c>
       <c r="D134">
-        <f t="shared" ca="1" si="2"/>
-        <v>4155</v>
+        <v>7023</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,8 +2401,7 @@
         <v>5</v>
       </c>
       <c r="D135">
-        <f t="shared" ca="1" si="2"/>
-        <v>4860</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,8 +2415,7 @@
         <v>6</v>
       </c>
       <c r="D136">
-        <f t="shared" ca="1" si="2"/>
-        <v>8665</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2561,8 +2429,7 @@
         <v>7</v>
       </c>
       <c r="D137">
-        <f t="shared" ca="1" si="2"/>
-        <v>996</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,8 +2443,7 @@
         <v>8</v>
       </c>
       <c r="D138">
-        <f t="shared" ca="1" si="2"/>
-        <v>1650</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2591,8 +2457,7 @@
         <v>9</v>
       </c>
       <c r="D139">
-        <f t="shared" ca="1" si="2"/>
-        <v>6286</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2606,8 +2471,7 @@
         <v>5</v>
       </c>
       <c r="D140">
-        <f t="shared" ca="1" si="2"/>
-        <v>1176</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,8 +2485,7 @@
         <v>6</v>
       </c>
       <c r="D141">
-        <f t="shared" ca="1" si="2"/>
-        <v>417</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,8 +2499,7 @@
         <v>7</v>
       </c>
       <c r="D142">
-        <f t="shared" ca="1" si="2"/>
-        <v>8046</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,8 +2513,7 @@
         <v>8</v>
       </c>
       <c r="D143">
-        <f t="shared" ca="1" si="2"/>
-        <v>4835</v>
+        <v>9605</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2666,8 +2527,7 @@
         <v>9</v>
       </c>
       <c r="D144">
-        <f t="shared" ca="1" si="2"/>
-        <v>7585</v>
+        <v>680</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,8 +2541,7 @@
         <v>5</v>
       </c>
       <c r="D145">
-        <f t="shared" ca="1" si="2"/>
-        <v>9010</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2696,8 +2555,7 @@
         <v>6</v>
       </c>
       <c r="D146">
-        <f t="shared" ca="1" si="2"/>
-        <v>2455</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2711,8 +2569,7 @@
         <v>7</v>
       </c>
       <c r="D147">
-        <f t="shared" ca="1" si="2"/>
-        <v>2081</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2726,8 +2583,7 @@
         <v>8</v>
       </c>
       <c r="D148">
-        <f t="shared" ca="1" si="2"/>
-        <v>5581</v>
+        <v>3826</v>
       </c>
     </row>
   </sheetData>
